--- a/daftar_pkm_2025.xlsx
+++ b/daftar_pkm_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\KUALASIMPANG_ENGINEER_LABS\pkm_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD557E6B-7C68-4FD0-BFC0-20F4D45D3F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52062530-2D88-4ED2-B018-08163693A435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Timestamp</t>
   </si>
@@ -124,6 +124,48 @@
   </si>
   <si>
     <t>Pembimbing</t>
+  </si>
+  <si>
+    <t>SEKAR : Seni Ekologis Kreatif untuk Anak Remaja</t>
+  </si>
+  <si>
+    <t>Astri Yunitasari</t>
+  </si>
+  <si>
+    <t>Alya Yumna Faiha (202433500234)
+Arsya Aura As Syifa (202433500240)
+Zahra Aulia Prameswari (202433500277)
+Anita Cahyani (202433500278)
+Dinda Deswita Putri (202433500280)</t>
+  </si>
+  <si>
+    <t>Artikel Ilmiah (PKM - AI)</t>
+  </si>
+  <si>
+    <t>Pengaruh pemasaran berbasis social (Social Commerce) terhadap preferensi pembelian coklat dubai donbakeshop oleh generasi Z di Instagram dan TikTok</t>
+  </si>
+  <si>
+    <t>Aditya Maulana - 202433500220 - Ketua
+Halisa Amalia - 202433500193
+Laila Suryani tanjung - 202433500199
+Zya Aqilla Zhifa - 202433500202
+Nur Azizah Riyanto - 202433500232</t>
+  </si>
+  <si>
+    <t>R1D</t>
+  </si>
+  <si>
+    <t>12/13/2024 0:50:28</t>
+  </si>
+  <si>
+    <t>Edukasi Kesehatan Pencegahan Stunting bagi Orang Tua Siswa Pendidikan Anak Usia Dini (PAUD) di Jakarta Timur</t>
+  </si>
+  <si>
+    <t>1. Ketua : R Galih Gumilar Wk - 202433500156
+2. Anggota: Virginia Putri Nauli Hutapea - 202433500344
+3. Anggota: Adinda Naila Nasywa - 202433500209
+4. Anggota: Salwa Aulida- 202433500343
+5. Anggota : Pebiola - 202433500309</t>
   </si>
 </sst>
 </file>
@@ -133,7 +175,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -146,16 +188,33 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -343,11 +402,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -385,6 +530,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,7 +598,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:G6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:G9">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Timestamp"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Bidang"/>
@@ -649,11 +813,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -778,7 +942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>45631.803654155097</v>
       </c>
@@ -800,6 +964,67 @@
       <c r="G6" s="12" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>45638.29074074074</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>45638.974976851852</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/daftar_pkm_2025.xlsx
+++ b/daftar_pkm_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\KUALASIMPANG_ENGINEER_LABS\pkm_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52062530-2D88-4ED2-B018-08163693A435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509DF514-E0A5-4C04-8643-AAA9D16DB0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
   <si>
     <t>Timestamp</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>Karsa Cipta (PKM - KC)</t>
-  </si>
-  <si>
-    <t>Business Intelligent (BI) terkait Sistem Penunjang Keputusan Pemilihan Make Up Artist  (MUA) menggunakan Metode Analytical Hierarchy Process (AHP) Berbasis Website</t>
-  </si>
-  <si>
-    <t>Sekar Ageng Pratiwi,  S.T., M.MSi</t>
   </si>
   <si>
     <t>Veronica jessica Sabrina - 202433500102 - Ketua
@@ -53,9 +47,6 @@
     <t>R1B</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Business Intelligent (BI) terkait Sistem Penunjang Keputusan Pemilihan Tempat Penitipan Anak menggunakan Metode Analytical Hierarchy Process (AHP) Berbasis Website.</t>
   </si>
   <si>
@@ -167,15 +158,173 @@
 4. Anggota: Salwa Aulida- 202433500343
 5. Anggota : Pebiola - 202433500309</t>
   </si>
+  <si>
+    <t>Business Intelligent (BI) terkait Sistem Penunjang Keputusan Pemilihan Make Up Artist (MUA) menggunakan Metode Analytical Hierarchy Process (AHP) Berbasis Website</t>
+  </si>
+  <si>
+    <t>Sekar Ageng Pratiwi, S.T., M.MSi</t>
+  </si>
+  <si>
+    <t>12/13/2024 15:48:30</t>
+  </si>
+  <si>
+    <t>Penerapan IPTEK (PKM - PI)</t>
+  </si>
+  <si>
+    <t>Program Gizandra Gizi untuk seluruh Nusantaraa</t>
+  </si>
+  <si>
+    <t>Dias Ardiansyah - 202333500953 - Ketua
+Helmi Rafif - 202333500930 - Anggota
+Sapna Naela Cahya - 202333500935 - Anggota
+Selpianah - 202333500938 - Anggota</t>
+  </si>
+  <si>
+    <t>R3H</t>
+  </si>
+  <si>
+    <t>12/17/2024 12:39:17</t>
+  </si>
+  <si>
+    <t>Business Intelligent (BI) terkait Sistem Penunjang Kolaborasi Relawan untuk Mendukung Pendidikan Anak Jalanan menggunakan Metode Analytical Hierarchy Process (AHP) Berbasis Website.</t>
+  </si>
+  <si>
+    <t>Luna Shyfa Rahmawati (099)
+Nazwa Dwi Rahmawati (118)
+Zaskia Ananda Fahra (112)
+Fina Herlinda (062)
+Shera Putya Ageng (064)</t>
+  </si>
+  <si>
+    <t>12/19/2024 21:40:00</t>
+  </si>
+  <si>
+    <t>Klik Tanpa Resiko:Membangun Kesadaran Anti-Judi Online Di Kalangan Pelajar Depok Dan Jakarta Timur</t>
+  </si>
+  <si>
+    <t>1. Aditya Maulana - 202433500220 - Ketua
+2. Nur Azizah Riyanto - 202433500232 - Anggota
+3. Halisa Amalia - 202433500193 - Anggota
+4. Zya Aqilla Zhifa - 202433500202 - Anggota
+5. Herlina Nurul - 202433500229 - Anggota</t>
+  </si>
+  <si>
+    <t>12/19/2024 21:43:16</t>
+  </si>
+  <si>
+    <t>Sekolah Untuk Semua:Mendukung Siswa Disabilitas di Sekolah Negeri Depok</t>
+  </si>
+  <si>
+    <t>1. Aditya Maulana -202433500220 - Ketua
+2. Nur Azizah Riyanto - 202433500232 - Anggota
+3. Halisa Amalia - 202433500193 - Anggota
+4.Laila Suryani Tanjung - 202433500199 - Anggota
+5. Herlina Nurul - 202433500229 - Anggota</t>
+  </si>
+  <si>
+    <t>12/19/2024 21:45:51</t>
+  </si>
+  <si>
+    <t>Stunting Bukan Takdir: Kolaborasi PKK dan Mahasiswa dalam Upaya Pencegahan di Masyarakat</t>
+  </si>
+  <si>
+    <t>1. Nur Azizah Riyanto - 202533500232 - Ketua
+2. Aditya Maulana - 202433500220 - Anggota
+3. Halisa Amalia - 202433500193 - Anggota
+4. Zya Aqilla Zhifa - 202433500202 - Anggota
+5. Herlina Nurul - 202433500229 - Anggota</t>
+  </si>
+  <si>
+    <t>12/20/2024 13:18:59</t>
+  </si>
+  <si>
+    <t>Peningkatan Literasi Digital Petani dan UMKM Desa Buninagara melalui Pelatihan dan Aplikasi Teknologi Sederhana</t>
+  </si>
+  <si>
+    <t>1. Halisa Amalia - 202433500193 (anggota)
+2. Laila Suryani tanjung - 202433500199 (anggota)
+3. Zya Aqilla Zhifa - 202433500202 (anggota)
+4. Aditya Maulana -202433500220 (anggota)
+5. Herlina Nurul - 202433500229 (Ketua)</t>
+  </si>
+  <si>
+    <t>12/23/2024 16:08:52</t>
+  </si>
+  <si>
+    <t>SISTEM KEPUTUSAN PEMILIHAN BUKU DENGAN MENGGUNAKAN METODE ANALYTIC HIERARCHY PROCESS BERBASIS WEBSITE</t>
+  </si>
+  <si>
+    <t>Anggota - (Nabilla Nur Sabrina -202433500463 - Ketua)</t>
+  </si>
+  <si>
+    <t>R1I</t>
+  </si>
+  <si>
+    <t>12/23/2024 16:17:53</t>
+  </si>
+  <si>
+    <t>Solusi digital untuk menikmati makanan</t>
+  </si>
+  <si>
+    <t>Bagus Putra Aryansyah-202433500450-Ketua
+Rizky Rhamadhan-202433500440-Anggota
+Fadzli Surya Pratama-202433500487-Anggota
+Ananda Agustini-202433500462-Anggota</t>
+  </si>
+  <si>
+    <t>12/23/2024 16:36:45</t>
+  </si>
+  <si>
+    <t>WEBSITE PENUNJANG KEPUTUSAN BERBASIS PREFERENSI PELANGGAN UNTUK OPTIMALISASI LAYANAN DAN PRODUK DI GO – PRINT</t>
+  </si>
+  <si>
+    <t>1. Dela Mareta Ardyaputri - 202433500458 - Ketua
+2. Muhammad Rafi Maulana - 202433500474 - Anggota
+3. Amar Zulkarnain - 202433500496 - Anggota
+4. Siti Afiifah - 202433500499 - Anggota</t>
+  </si>
+  <si>
+    <t>12/23/2024 16:43:50</t>
+  </si>
+  <si>
+    <t>•Nabilla Nur Sabrina - 202433500463 - Ketua
+•Bima Sakti Prabandaru - 202433500452 - Anggota 
+•Louis Martin Sirait - 202433500486 - Anggota</t>
+  </si>
+  <si>
+    <t>12/23/2024 17:08:33</t>
+  </si>
+  <si>
+    <t>SISTEM PENUNJANG KEPUTUSAN PEMILIHAN LAPTOP UNTUK MAHASISWA BERDASARKAN SPESIFIKASI DAN KEBUTUHAN MENGGUNAKAN METODE Simple Additive Weighting WEBSITE “SMARTPICK”</t>
+  </si>
+  <si>
+    <t>Nazril Hilman(Ketua)
+202433500480
+Jasmine Putri Raissa(Anggota)
+202433500466
+Neneng Fatimah(Anggota)
+202433500490
+Dwi Angga Septiana(Anggota)
+202433500489</t>
+  </si>
+  <si>
+    <t>12/24/2024 18:15:47</t>
+  </si>
+  <si>
+    <t>SISTEM PENUNJANG KEPUTUSAN PEMILIHAN JENIS KUCING PELIHARAAN MENGGUNAKAN METODE ANALYTICAL HIERARCHY PROCESS BERBASIS WEBSITE “CatCrafts.com”</t>
+  </si>
+  <si>
+    <t>1. Muhammad Zuhdi - 202433500501 - Ketua
+2. Maulidia Ramadhani Azahra - 202433500449 - Anggota
+3. Jordy Carlo Altariq Setiawan - 202433500468 - Anggota
+4. Evi Solemah Ariyanti - 202433500470 - Anggota</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -192,6 +341,13 @@
       <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -214,7 +370,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -264,171 +420,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF442F65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF442F65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF442F65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF442F65"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF8F9FA"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,6 +455,21 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF442F65"/>
       </left>
       <right style="medium">
@@ -472,7 +478,9 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,14 +493,61 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -503,52 +558,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,7 +640,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:G9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:G21">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Timestamp"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Bidang"/>
@@ -813,11 +855,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -827,18 +869,18 @@
     <col min="5" max="13" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -850,181 +892,425 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="230.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45629.426053217598</v>
+        <v>45363.426053240742</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="153.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>45629.471489097225</v>
+        <v>45363.471493055556</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45363.474351851852</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>45629.474352789352</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="217.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>45629.635833252316</v>
+        <v>45363.635833333334</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45424.803657407407</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="F6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>45638.29074074074</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>45631.803654155097</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45638.974976851852</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>45638.29074074074</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>45638.974976851852</v>
-      </c>
-      <c r="B8" s="16" t="s">
+      <c r="C9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="19"/>
+      <c r="E16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
